--- a/application/plugins/Reports_summary_sell_profit/Reports_summary_sell_profit.xlsx
+++ b/application/plugins/Reports_summary_sell_profit/Reports_summary_sell_profit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -100,13 +100,13 @@
     <t>{$v-&gt;rows[]-&gt;group_by}</t>
   </si>
   <si>
-    <t>{$v-&gt;totals[]-&gt;group_by}&lt;merge2&gt;</t>
-  </si>
-  <si>
     <t>Итоги анализа продаж и прибыли</t>
   </si>
   <si>
     <t>Развернутый анализ продаж и прибыли</t>
+  </si>
+  <si>
+    <t>{$v-&gt;totals[]-&gt;group_by}</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,7 +829,7 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E5" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="8" t="s">
@@ -917,7 +917,7 @@
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -1016,15 +1016,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
